--- a/healthman-mock/v2/data/classes/智慧城市与交通学院.xlsx
+++ b/healthman-mock/v2/data/classes/智慧城市与交通学院.xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -481,7 +482,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000054</t>
+          <t>000057</t>
         </is>
       </c>
     </row>
@@ -506,7 +507,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>000997</t>
+          <t>000117</t>
         </is>
       </c>
     </row>
@@ -531,7 +532,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000321</t>
+          <t>000039</t>
         </is>
       </c>
     </row>
@@ -556,7 +557,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>000965</t>
+          <t>000089</t>
         </is>
       </c>
     </row>
@@ -581,7 +582,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>000571</t>
+          <t>000124</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>000207</t>
+          <t>000132</t>
         </is>
       </c>
     </row>
@@ -631,7 +632,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>000698</t>
+          <t>000071</t>
         </is>
       </c>
     </row>
@@ -656,7 +657,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>000462</t>
+          <t>000027</t>
         </is>
       </c>
     </row>
@@ -681,7 +682,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>000335</t>
+          <t>000132</t>
         </is>
       </c>
     </row>
@@ -706,7 +707,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>000332</t>
+          <t>000231</t>
         </is>
       </c>
     </row>
@@ -731,7 +732,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000911</t>
+          <t>000175</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>000457</t>
+          <t>000113</t>
         </is>
       </c>
     </row>
@@ -781,7 +782,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>000610</t>
+          <t>000150</t>
         </is>
       </c>
     </row>
